--- a/downloaded_files/EECS306_Tutorial-35882.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35882.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,195 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عمرو محمود كامل رشاد توكل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Amr Mahmoud Tawakol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>الحسين محمد محمود عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه سيد بدير احمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Sayed Bedier Ahmed Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ريتاج حسين محمود حسين عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retaj hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد معتز محمد محمد فؤاد إسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziyad Moataz Mohamed Mohamed Fouad Ismail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>طارق اسامة احمد مصطفي احمد العشماوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarek Osama Ahmed Mostafa Ahmed Elashmawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد فتحى محمد موسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman mohamed fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي خالد محمد حمدي محمد سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Khaled Mohamed Hamdy Mohamed Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد صابر محمد حمص</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar walid saber mohamed homos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد سيد محمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed ahmed sayed mohamed awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد محمود احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد رائد سيد فوده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Raed Sayed Foda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد رضا محمد عثمان دسوقى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Reda Mohamed Osman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عماد عبدالمنعم المظلوم محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Emad Abd ELmoniem Elmazloum Mohammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان عمرو احمد عبدالفتاح ياسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Amr Ahmed Abdelfatah Yassen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى تامر مصطفى السيد ابوالفضل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Tamer Mostafa Alsayed Abuelfadl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي حسام الدين حفناوي مصطفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Hossameldin Hefnawi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى طارق ابراهيم أحمد نصرالدين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yehia Tarek ibrahim ahmed nasreldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عبدالنبى عويس خلف طلبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>youssef Abdelnaby Awais Khalaf Tolba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssuf kamel ismail Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد حمدى محمد عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Hamdy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -107,21 +296,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -132,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -432,17 +635,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.270625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="51.680625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -510,11 +713,676 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="3">
+        <x:v>45907.4194556713</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:20">
+      <x:c r="A3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="3">
+        <x:v>45912.869284838</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
+      <x:c r="P3" s="2" t="s"/>
+      <x:c r="Q3" s="2" t="s"/>
+      <x:c r="R3" s="2" t="s"/>
+      <x:c r="S3" s="2" t="s"/>
+      <x:c r="T3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20">
+      <x:c r="A4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="3">
+        <x:v>45907.4601518519</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45912.8663944444</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45912.8596338773</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45912.8665419329</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45913.7293347569</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45907.4197314468</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45909.4409860764</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45909.4254305903</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45909.4401424421</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45912.8792241898</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45913.7317593403</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45907.4201091435</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45907.4198864583</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45912.8794659375</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45912.8598597222</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45907.5004795139</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45913.7654073727</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45909.5377995023</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45912.8698941782</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35882.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35882.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Retaj hussein</x:t>
   </x:si>
   <x:si>
+    <x:t>1210226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد احمد محمد مهدى عصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Ahmed Mohamed Mahdy Asar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220240</x:t>
   </x:si>
   <x:si>
@@ -166,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Amr Ahmed Abdelfatah Yassen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم مصطفى عمر حبيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Mostafa Omar Habeb</x:t>
   </x:si>
   <x:si>
     <x:t>1220202</x:t>
@@ -335,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -854,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.8596338773</x:v>
+        <x:v>45923.5873221412</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.8665419329</x:v>
+        <x:v>45912.8596338773</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.7293347569</x:v>
+        <x:v>45912.8665419329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45913.7293347569</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4409860764</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4254305903</x:v>
+        <x:v>45909.4409860764</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4401424421</x:v>
+        <x:v>45909.4254305903</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.8792241898</x:v>
+        <x:v>45909.4401424421</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45912.8792241898</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4201091435</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45907.4201091435</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8794659375</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8598597222</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.5004795139</x:v>
+        <x:v>45912.8794659375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7654073727</x:v>
+        <x:v>45912.8598597222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45907.5004795139</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.8698941782</x:v>
+        <x:v>45913.7654073727</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1401,70 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45909.5377995023</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45912.8698941782</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35882.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35882.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
   </x:si>
   <x:si>
+    <x:t>1230294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انطون مجدي يعقوب نظير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANTON</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230177</x:t>
   </x:si>
   <x:si>
@@ -60,6 +69,15 @@
     <x:t>Habiba Sayed Bedier Ahmed Amin</x:t>
   </x:si>
   <x:si>
+    <x:t>1220010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان احمد السيد محمد النبراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Ahmed Elsayed Mohamed Elnabarawy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230036</x:t>
   </x:si>
   <x:si>
@@ -96,13 +114,13 @@
     <x:t>Tarek Osama Ahmed Mostafa Ahmed Elashmawy</x:t>
   </x:si>
   <x:si>
-    <x:t>1220096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد فتحى محمد موسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman mohamed fathy</x:t>
+    <x:t>1220128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن ياسر احمد محمد بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrhman Yasser Ahmed Mohamed Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1220261</x:t>
@@ -123,15 +141,6 @@
     <x:t>Omar walid saber mohamed homos</x:t>
   </x:si>
   <x:si>
-    <x:t>1220140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد سيد محمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed ahmed sayed mohamed awad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220272</x:t>
   </x:si>
   <x:si>
@@ -159,6 +168,15 @@
     <x:t>Mohamed Reda Mohamed Osman</x:t>
   </x:si>
   <x:si>
+    <x:t>1220195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد طارق محمد عبدالخالق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Tarek Mohamef Abdelkhalek</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220083</x:t>
   </x:si>
   <x:si>
@@ -168,6 +186,15 @@
     <x:t>Mohammad Emad Abd ELmoniem Elmazloum Mohammad</x:t>
   </x:si>
   <x:si>
+    <x:t>4230174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد منير عبدالحميد كمال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Monir</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230324</x:t>
   </x:si>
   <x:si>
@@ -211,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Yehia Tarek ibrahim ahmed nasreldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف باسم لمعي جندي جرجس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Bassem Lamey Gindy</x:t>
   </x:si>
   <x:si>
     <x:t>1210421</x:t>
@@ -353,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -808,7 +844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4601518519</x:v>
+        <x:v>45927.4531734144</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.8663944444</x:v>
+        <x:v>45907.4601518519</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45923.5873221412</x:v>
+        <x:v>45927.5100843403</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.8596338773</x:v>
+        <x:v>45912.8663944444</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.8665419329</x:v>
+        <x:v>45923.5873221412</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.7293347569</x:v>
+        <x:v>45912.8596338773</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45912.8665419329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4409860764</x:v>
+        <x:v>45927.5083684838</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4254305903</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4401424421</x:v>
+        <x:v>45909.4409860764</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8792241898</x:v>
+        <x:v>45927.4201885417</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45912.8792241898</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4201091435</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45927.4899052894</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45923.5894841435</x:v>
+        <x:v>45907.4201091435</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8794659375</x:v>
+        <x:v>45927.4142504282</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.8598597222</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.5004795139</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.7654073727</x:v>
+        <x:v>45912.8794659375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45912.8598597222</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.8698941782</x:v>
+        <x:v>45907.5004795139</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1501,134 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45927.414768831</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45913.7654073727</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45909.5377995023</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45912.8698941782</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35882.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35882.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
   </x:si>
   <x:si>
-    <x:t>1230294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انطون مجدي يعقوب نظير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANTON</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230177</x:t>
   </x:si>
   <x:si>
@@ -193,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Monir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان عمرو احمد عبدالفتاح ياسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Amr Ahmed Abdelfatah Yassen</x:t>
   </x:si>
   <x:si>
     <x:t>1210303</x:t>
@@ -389,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -844,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4531734144</x:v>
+        <x:v>45907.4601518519</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -876,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4601518519</x:v>
+        <x:v>45927.5100843403</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -908,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.5100843403</x:v>
+        <x:v>45912.8663944444</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -940,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.8663944444</x:v>
+        <x:v>45923.5873221412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45923.5873221412</x:v>
+        <x:v>45912.8596338773</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.8596338773</x:v>
+        <x:v>45912.8665419329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.8665419329</x:v>
+        <x:v>45927.5083684838</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.5083684838</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45909.4409860764</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4409860764</x:v>
+        <x:v>45927.4201885417</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4201885417</x:v>
+        <x:v>45912.8792241898</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.8792241898</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45927.4899052894</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4899052894</x:v>
+        <x:v>45907.4201091435</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4201091435</x:v>
+        <x:v>45927.4142504282</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4142504282</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45912.8794659375</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45923.5894841435</x:v>
+        <x:v>45912.8598597222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.8794659375</x:v>
+        <x:v>45907.5004795139</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.8598597222</x:v>
+        <x:v>45927.414768831</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.5004795139</x:v>
+        <x:v>45913.7654073727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.414768831</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.7654073727</x:v>
+        <x:v>45912.8698941782</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1565,70 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45909.5377995023</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45912.8698941782</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35882.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35882.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,6 +177,15 @@
     <x:t>Mohammad Emad Abd ELmoniem Elmazloum Mohammad</x:t>
   </x:si>
   <x:si>
+    <x:t>1230246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230174</x:t>
   </x:si>
   <x:si>
@@ -211,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Hossameldin Hefnawi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور اسلام محمود السيد عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1230286</x:t>
@@ -371,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1274,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4142504282</x:v>
+        <x:v>45928.2246198727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45923.5894841435</x:v>
+        <x:v>45927.4142504282</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.8794659375</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.8598597222</x:v>
+        <x:v>45912.8794659375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.5004795139</x:v>
+        <x:v>45912.8598597222</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.414768831</x:v>
+        <x:v>45928.5620574884</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.7654073727</x:v>
+        <x:v>45907.5004795139</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45927.414768831</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.8698941782</x:v>
+        <x:v>45913.7654073727</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1565,70 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45909.5377995023</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45912.8698941782</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35882.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35882.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1220215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عمرو محمود كامل رشاد توكل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Amr Mahmoud Tawakol</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220226</x:t>
   </x:si>
   <x:si>
@@ -78,15 +69,6 @@
     <x:t>Retaj hussein</x:t>
   </x:si>
   <x:si>
-    <x:t>1210226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد احمد محمد مهدى عصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Ahmed Mohamed Mahdy Asar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220240</x:t>
   </x:si>
   <x:si>
@@ -193,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Monir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم مصطفى عمر حبيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Mostafa Omar Habeb</x:t>
   </x:si>
   <x:si>
     <x:t>1220202</x:t>
@@ -389,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -780,7 +753,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4194556713</x:v>
+        <x:v>45912.869284838</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -812,7 +785,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45912.869284838</x:v>
+        <x:v>45907.4601518519</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -844,7 +817,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4601518519</x:v>
+        <x:v>45927.5100843403</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -876,7 +849,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.5100843403</x:v>
+        <x:v>45912.8663944444</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -908,7 +881,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.8663944444</x:v>
+        <x:v>45912.8596338773</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -940,7 +913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45923.5873221412</x:v>
+        <x:v>45912.8665419329</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.8596338773</x:v>
+        <x:v>45927.5083684838</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.8665419329</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.5083684838</x:v>
+        <x:v>45909.4409860764</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45927.4201885417</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4409860764</x:v>
+        <x:v>45912.8792241898</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4201885417</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8792241898</x:v>
+        <x:v>45927.4899052894</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45907.4201091435</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4899052894</x:v>
+        <x:v>45928.2246198727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4201091435</x:v>
+        <x:v>45927.4142504282</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45928.2246198727</x:v>
+        <x:v>45912.8794659375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4142504282</x:v>
+        <x:v>45912.8598597222</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45923.5894841435</x:v>
+        <x:v>45928.5620574884</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.8794659375</x:v>
+        <x:v>45907.5004795139</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.8598597222</x:v>
+        <x:v>45927.414768831</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45928.5620574884</x:v>
+        <x:v>45913.7654073727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.5004795139</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.414768831</x:v>
+        <x:v>45912.8698941782</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1533,102 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45913.7654073727</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45909.5377995023</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45912.8698941782</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35882.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35882.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Tarek Osama Ahmed Mostafa Ahmed Elashmawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن على احمد حشاد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdulRahman Ali Ahmed Hashad Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1220128</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -945,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.5083684838</x:v>
+        <x:v>45912.8698265857</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45927.5083684838</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4409860764</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4201885417</x:v>
+        <x:v>45909.4409860764</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8792241898</x:v>
+        <x:v>45927.4201885417</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45912.8792241898</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4899052894</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4201091435</x:v>
+        <x:v>45927.4899052894</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.2246198727</x:v>
+        <x:v>45907.4201091435</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4142504282</x:v>
+        <x:v>45928.2246198727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8794659375</x:v>
+        <x:v>45927.4142504282</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8598597222</x:v>
+        <x:v>45912.8794659375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.5620574884</x:v>
+        <x:v>45912.8598597222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.5004795139</x:v>
+        <x:v>45928.5620574884</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.414768831</x:v>
+        <x:v>45907.5004795139</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.7654073727</x:v>
+        <x:v>45927.414768831</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45913.7654073727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.8698941782</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45912.8698941782</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35882.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35882.xlsx
@@ -129,7 +129,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1220020</x:t>

--- a/downloaded_files/EECS306_Tutorial-35882.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35882.xlsx
@@ -174,7 +174,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>4230174</x:t>
@@ -246,7 +246,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1220301</x:t>
